--- a/aichan/550268761841565603_2021-07-22_20-43-50.xlsx
+++ b/aichan/550268761841565603_2021-07-22_20-43-50.xlsx
@@ -937,7 +937,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -10555,7 +10555,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22836,7 +22836,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -24300,7 +24300,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -26357,7 +26357,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26960,7 +26960,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -32922,7 +32922,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -33393,7 +33393,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -35842,7 +35842,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -41697,7 +41697,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -41922,7 +41922,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -48019,7 +48019,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -54149,7 +54149,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K751" t="inlineStr">
@@ -54356,7 +54356,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
@@ -56233,7 +56233,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -57599,7 +57599,7 @@
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K799" t="inlineStr">
@@ -58778,7 +58778,7 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K816" t="inlineStr">
@@ -69262,7 +69262,7 @@
         </is>
       </c>
       <c r="I962" t="n">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="J962" t="inlineStr">
         <is>
@@ -71468,7 +71468,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K992" t="inlineStr">
@@ -72104,7 +72104,7 @@
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K1001" t="inlineStr">
